--- a/excels/items/item_arms.xlsx
+++ b/excels/items/item_arms.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="138">
   <si>
     <t>名字</t>
   </si>
@@ -366,62 +366,68 @@
   </si>
   <si>
     <t>antimage_mana_void</t>
+  </si>
+  <si>
+    <t>{
+"Bonus" "10"
+"Base" "19"
+}</t>
+  </si>
+  <si>
+    <t>search_radius 300</t>
+  </si>
+  <si>
+    <t>interval 1</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_bristleback/bristleback_quill_spray.vpcf</t>
+  </si>
+  <si>
+    <t>100+0.01*Strength</t>
+  </si>
+  <si>
+    <t>item_datadriven</t>
+  </si>
+  <si>
+    <t>models/props_gameplay/red_box.vmdl</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
+  </si>
+  <si>
+    <t>ITEM_PARTIALLY_SHAREABLE</t>
+  </si>
+  <si>
+    <t>item_arms</t>
+  </si>
+  <si>
+    <t>CASTER</t>
+  </si>
+  <si>
+    <t>items/datadriven/item_arms</t>
+  </si>
+  <si>
+    <t>OnEquip</t>
+  </si>
+  <si>
+    <t>OnUnEquip</t>
+  </si>
+  <si>
+    <t>OnSpellStart</t>
+  </si>
+  <si>
+    <t>OnProjectileHitUnit</t>
+  </si>
+  <si>
+    <t>item_arms_2</t>
+  </si>
+  <si>
+    <t>武器-单位目标</t>
   </si>
   <si>
     <t>{
 "Bonus" "10"
 }</t>
-  </si>
-  <si>
-    <t>search_radius 300</t>
-  </si>
-  <si>
-    <t>interval 1</t>
-  </si>
-  <si>
-    <t>particles/units/heroes/hero_bristleback/bristleback_quill_spray.vpcf</t>
-  </si>
-  <si>
-    <t>100+0.01*Strength</t>
-  </si>
-  <si>
-    <t>item_datadriven</t>
-  </si>
-  <si>
-    <t>models/props_gameplay/red_box.vmdl</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
-  </si>
-  <si>
-    <t>ITEM_PARTIALLY_SHAREABLE</t>
-  </si>
-  <si>
-    <t>item_arms</t>
-  </si>
-  <si>
-    <t>CASTER</t>
-  </si>
-  <si>
-    <t>items/datadriven/item_arms</t>
-  </si>
-  <si>
-    <t>OnEquip</t>
-  </si>
-  <si>
-    <t>OnUnEquip</t>
-  </si>
-  <si>
-    <t>OnSpellStart</t>
-  </si>
-  <si>
-    <t>OnProjectileHitUnit</t>
-  </si>
-  <si>
-    <t>item_arms_2</t>
-  </si>
-  <si>
-    <t>武器-单位目标</t>
   </si>
   <si>
     <t>search_radius 600</t>
@@ -1582,7 +1588,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{EA6818AB-D1A7-4B46-AF33-142578874833}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{57329961-2898-4A79-BBA5-58BF83CF495D}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1890,9 +1896,9 @@
   <dimension ref="A1:CI5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I4" sqref="I4"/>
+      <selection pane="topRight" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2640,7 +2646,7 @@
       <c r="P4" s="16"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="16" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
@@ -2653,7 +2659,7 @@
       <c r="AA4" s="28"/>
       <c r="AB4" s="14"/>
       <c r="AC4" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AD4" s="15" t="s">
         <v>114</v>
@@ -2669,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="AM4" s="35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN4" s="15">
         <v>1200</v>
@@ -2678,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="AP4" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AQ4" s="16">
         <v>0</v>
@@ -2782,10 +2788,10 @@
     </row>
     <row r="5" ht="47.75" customHeight="1" spans="1:87">
       <c r="A5" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -2822,7 +2828,7 @@
       <c r="Q5" s="18"/>
       <c r="R5" s="19"/>
       <c r="S5" s="19" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="T5" s="19"/>
       <c r="U5" s="18"/>
@@ -2834,7 +2840,7 @@
       <c r="AA5" s="28"/>
       <c r="AB5" s="17"/>
       <c r="AC5" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AD5" s="18" t="s">
         <v>114</v>
@@ -2850,7 +2856,7 @@
         <v>2</v>
       </c>
       <c r="AM5" s="37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN5" s="18">
         <v>600</v>
@@ -2859,7 +2865,7 @@
         <v>1200</v>
       </c>
       <c r="AP5" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AQ5" s="19">
         <v>0</v>

--- a/excels/items/item_arms.xlsx
+++ b/excels/items/item_arms.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="356">
   <si>
     <t>名字</t>
   </si>
@@ -75,12 +75,6 @@
   </si>
   <si>
     <t>物品KV值</t>
-  </si>
-  <si>
-    <t>范围</t>
-  </si>
-  <si>
-    <t>内置周期</t>
   </si>
   <si>
     <t>xxx</t>
@@ -303,7 +297,11 @@
     <t>雷魂</t>
   </si>
   <si>
-    <t>&lt;h1&gt;效果:&lt;/h1&gt;召唤3个雷电幽魂围绕英雄，对所有触碰到的敌人造成伤害</t>
+    <t>&lt;h1&gt;效果:&lt;/h1&gt;召唤3个雷电幽魂围绕英雄，对所有触碰到的敌人造成伤害
+召唤物时间：3
+cd：2秒
+伤害系数：每个雷魂造成攻击力100%·雷元素伤害
+作用范围：以自身中心直径300码</t>
   </si>
   <si>
     <t>召唤</t>
@@ -312,7 +310,10 @@
     <t>item_ambient_sorcery</t>
   </si>
   <si>
-    <t>item_datadriven</t>
+    <t>arms_cd 2</t>
+  </si>
+  <si>
+    <t>summoned_duration 3</t>
   </si>
   <si>
     <t>items/arms/t1/item_arms_t1_1</t>
@@ -342,6 +343,9 @@
     <t>&lt;h1&gt;效果:&lt;/h1&gt;每秒损失10灵魂，替换该技能时获
 取已损失灵魂的两倍收益。
 （灵魂为0时不再扣除）</t>
+  </si>
+  <si>
+    <t>item_datadriven</t>
   </si>
   <si>
     <t>items/arms/t1/item_arms_t1_3</t>
@@ -2426,16 +2430,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A71F524B-1587-45C4-9771-3D6357D3805C}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{D8DA0B2A-4ADD-4524-AAA5-51E631B3B324}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{27449513-EF44-43C3-8404-F22A73BBF622}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{74C95A2A-CB5A-4D13-AE6C-657A0B59861F}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{24D4DF74-5769-493E-8F88-ED7493944F12}">
+    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{1351492F-AFCE-47B6-AF1C-C7641AB5BA7C}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="firstColumn" dxfId="9"/>
@@ -2744,9 +2748,9 @@
   <dimension ref="A1:AU85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="AH1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="AB1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D7" sqref="D7"/>
+      <selection pane="topRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2764,8 +2768,8 @@
     <col min="14" max="14" width="21.675" customWidth="1"/>
     <col min="15" max="15" width="24.5083333333333" customWidth="1"/>
     <col min="16" max="16" width="18.3416666666667" customWidth="1"/>
-    <col min="17" max="17" width="8.675" customWidth="1"/>
-    <col min="18" max="18" width="12.3416666666667" customWidth="1"/>
+    <col min="17" max="17" width="15.125" customWidth="1"/>
+    <col min="18" max="18" width="21.625" customWidth="1"/>
     <col min="19" max="24" width="6.24166666666667" customWidth="1"/>
     <col min="25" max="25" width="8.00833333333333" customWidth="1"/>
     <col min="26" max="26" width="21.3416666666667" customWidth="1"/>
@@ -2838,12 +2842,8 @@
       <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
@@ -2851,117 +2851,117 @@
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
       <c r="Y1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AB1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AC1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AD1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="AF1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="AG1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AO1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AR1" s="25" t="s">
         <v>33</v>
-      </c>
-      <c r="AQ1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AR1" s="25" t="s">
-        <v>35</v>
       </c>
       <c r="AS1" s="26"/>
       <c r="AT1" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AU1" s="28"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:46">
       <c r="A2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="L2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="M2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="N2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="O2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="P2" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="Q2" s="21">
         <v>1</v>
@@ -2976,94 +2976,94 @@
         <v>4</v>
       </c>
       <c r="U2" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="X2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="Y2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="Z2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" s="24" t="s">
+      <c r="AA2" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="24" t="s">
+      <c r="AB2" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" s="21" t="s">
+      <c r="AC2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="21" t="s">
+      <c r="AD2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AE2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AF2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" s="24" t="s">
+      <c r="AG2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AH2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AI2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AJ2" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="AI2" s="21" t="s">
+      <c r="AK2" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="AJ2" s="21" t="s">
+      <c r="AL2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AK2" s="21" t="s">
+      <c r="AM2" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AN2" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="AM2" s="21" t="s">
+      <c r="AO2" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="AN2" s="21" t="s">
+      <c r="AP2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AO2" s="21" t="s">
+      <c r="AQ2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AP2" s="21" t="s">
+      <c r="AR2" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="AQ2" s="21" t="s">
+      <c r="AS2" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT2" s="31" t="s">
         <v>73</v>
-      </c>
-      <c r="AR2" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS2" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="AT2" s="31" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="22.5" customHeight="1" spans="1:47">
       <c r="A3" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="12">
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
@@ -3114,16 +3114,16 @@
         <v>0</v>
       </c>
       <c r="AC3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE3" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="AF3" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="AE3" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF3" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="AG3" s="12">
         <v>1</v>
@@ -3133,10 +3133,10 @@
       <c r="AJ3" s="22"/>
       <c r="AK3" s="22"/>
       <c r="AL3" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AM3" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AN3" s="12"/>
       <c r="AO3" s="32"/>
@@ -3147,18 +3147,18 @@
       <c r="AT3" s="35"/>
       <c r="AU3" s="36"/>
     </row>
-    <row r="4" ht="33" spans="1:47">
+    <row r="4" ht="115.5" spans="1:47">
       <c r="A4" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="E4" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="F4" s="15">
         <v>210001</v>
@@ -3186,11 +3186,15 @@
         <v>0</v>
       </c>
       <c r="O4" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
@@ -3208,16 +3212,16 @@
         <v>0</v>
       </c>
       <c r="AC4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD4" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AD4" s="15" t="s">
-        <v>92</v>
-      </c>
       <c r="AE4" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF4" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG4" s="15">
         <v>1</v>
@@ -3239,16 +3243,16 @@
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:47">
       <c r="A5" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="E5" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="F5" s="15">
         <v>210002</v>
@@ -3274,10 +3278,12 @@
         <v>0</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
+      <c r="Q5" s="12" t="s">
+        <v>89</v>
+      </c>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
@@ -3296,16 +3302,16 @@
         <v>0</v>
       </c>
       <c r="AC5" s="12" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AD5" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AE5" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF5" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG5" s="12">
         <v>1</v>
@@ -3327,13 +3333,13 @@
     </row>
     <row r="6" ht="49.5" spans="1:47">
       <c r="A6" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>100</v>
       </c>
       <c r="F6" s="15">
         <v>210003</v>
@@ -3359,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
@@ -3381,16 +3387,16 @@
         <v>0</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD6" s="15" t="s">
         <v>101</v>
       </c>
       <c r="AE6" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF6" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG6" s="15">
         <v>1</v>
@@ -3442,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
@@ -3464,16 +3470,16 @@
         <v>0</v>
       </c>
       <c r="AC7" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD7" s="12" t="s">
         <v>104</v>
       </c>
       <c r="AE7" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF7" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG7" s="12">
         <v>1</v>
@@ -3527,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -3549,16 +3555,16 @@
         <v>0</v>
       </c>
       <c r="AC8" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD8" s="15" t="s">
         <v>108</v>
       </c>
       <c r="AE8" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF8" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG8" s="15">
         <v>1</v>
@@ -3610,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
@@ -3632,16 +3638,16 @@
         <v>0</v>
       </c>
       <c r="AC9" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD9" s="12" t="s">
         <v>111</v>
       </c>
       <c r="AE9" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF9" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG9" s="12">
         <v>1</v>
@@ -3695,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
@@ -3717,16 +3723,16 @@
         <v>0</v>
       </c>
       <c r="AC10" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD10" s="15" t="s">
         <v>115</v>
       </c>
       <c r="AE10" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF10" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG10" s="15">
         <v>1</v>
@@ -3780,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
@@ -3802,16 +3808,16 @@
         <v>0</v>
       </c>
       <c r="AC11" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD11" s="12" t="s">
         <v>119</v>
       </c>
       <c r="AE11" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF11" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG11" s="12">
         <v>1</v>
@@ -3863,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
@@ -3885,16 +3891,16 @@
         <v>0</v>
       </c>
       <c r="AC12" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD12" s="15" t="s">
         <v>122</v>
       </c>
       <c r="AE12" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF12" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG12" s="15">
         <v>1</v>
@@ -3948,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
@@ -3970,16 +3976,16 @@
         <v>0</v>
       </c>
       <c r="AC13" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD13" s="12" t="s">
         <v>125</v>
       </c>
       <c r="AE13" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF13" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG13" s="12">
         <v>1</v>
@@ -4035,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
@@ -4057,16 +4063,16 @@
         <v>0</v>
       </c>
       <c r="AC14" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD14" s="15" t="s">
         <v>129</v>
       </c>
       <c r="AE14" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF14" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG14" s="15">
         <v>1</v>
@@ -4122,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
@@ -4144,16 +4150,16 @@
         <v>0</v>
       </c>
       <c r="AC15" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD15" s="12" t="s">
         <v>133</v>
       </c>
       <c r="AE15" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF15" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG15" s="12">
         <v>1</v>
@@ -4209,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
@@ -4231,16 +4237,16 @@
         <v>0</v>
       </c>
       <c r="AC16" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD16" s="15" t="s">
         <v>137</v>
       </c>
       <c r="AE16" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF16" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG16" s="15">
         <v>1</v>
@@ -4296,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
@@ -4318,16 +4324,16 @@
         <v>0</v>
       </c>
       <c r="AC17" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD17" s="12" t="s">
         <v>141</v>
       </c>
       <c r="AE17" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF17" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG17" s="12">
         <v>1</v>
@@ -4381,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
@@ -4403,16 +4409,16 @@
         <v>0</v>
       </c>
       <c r="AC18" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD18" s="15" t="s">
         <v>144</v>
       </c>
       <c r="AE18" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF18" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG18" s="15">
         <v>1</v>
@@ -4468,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
@@ -4490,16 +4496,16 @@
         <v>0</v>
       </c>
       <c r="AC19" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD19" s="12" t="s">
         <v>148</v>
       </c>
       <c r="AE19" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF19" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG19" s="12">
         <v>1</v>
@@ -4555,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
@@ -4577,16 +4583,16 @@
         <v>0</v>
       </c>
       <c r="AC20" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD20" s="15" t="s">
         <v>152</v>
       </c>
       <c r="AE20" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF20" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG20" s="15">
         <v>1</v>
@@ -4642,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
@@ -4664,16 +4670,16 @@
         <v>0</v>
       </c>
       <c r="AC21" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD21" s="12" t="s">
         <v>156</v>
       </c>
       <c r="AE21" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF21" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG21" s="12">
         <v>1</v>
@@ -4729,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
@@ -4751,16 +4757,16 @@
         <v>0</v>
       </c>
       <c r="AC22" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD22" s="15" t="s">
         <v>160</v>
       </c>
       <c r="AE22" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF22" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG22" s="15">
         <v>1</v>
@@ -4816,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
@@ -4838,16 +4844,16 @@
         <v>0</v>
       </c>
       <c r="AC23" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD23" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AE23" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF23" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG23" s="12">
         <v>1</v>
@@ -4903,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
@@ -4925,16 +4931,16 @@
         <v>0</v>
       </c>
       <c r="AC24" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD24" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AE24" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF24" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG24" s="12">
         <v>1</v>
@@ -4990,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
@@ -5012,16 +5018,16 @@
         <v>0</v>
       </c>
       <c r="AC25" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD25" s="15" t="s">
         <v>171</v>
       </c>
       <c r="AE25" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF25" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG25" s="15">
         <v>1</v>
@@ -5075,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
@@ -5097,16 +5103,16 @@
         <v>0</v>
       </c>
       <c r="AC26" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD26" s="12" t="s">
         <v>174</v>
       </c>
       <c r="AE26" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF26" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG26" s="12">
         <v>1</v>
@@ -5160,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
@@ -5182,16 +5188,16 @@
         <v>0</v>
       </c>
       <c r="AC27" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD27" s="15" t="s">
         <v>177</v>
       </c>
       <c r="AE27" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF27" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG27" s="15">
         <v>1</v>
@@ -5245,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
@@ -5267,16 +5273,16 @@
         <v>0</v>
       </c>
       <c r="AC28" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD28" s="12" t="s">
         <v>180</v>
       </c>
       <c r="AE28" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF28" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG28" s="12">
         <v>1</v>
@@ -5330,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
@@ -5352,16 +5358,16 @@
         <v>0</v>
       </c>
       <c r="AC29" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD29" s="15" t="s">
         <v>183</v>
       </c>
       <c r="AE29" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF29" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG29" s="15">
         <v>1</v>
@@ -5415,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
@@ -5437,16 +5443,16 @@
         <v>0</v>
       </c>
       <c r="AC30" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD30" s="12" t="s">
         <v>186</v>
       </c>
       <c r="AE30" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF30" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG30" s="12">
         <v>1</v>
@@ -5500,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
@@ -5522,16 +5528,16 @@
         <v>0</v>
       </c>
       <c r="AC31" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD31" s="15" t="s">
         <v>189</v>
       </c>
       <c r="AE31" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF31" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG31" s="15">
         <v>1</v>
@@ -5587,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
@@ -5609,16 +5615,16 @@
         <v>0</v>
       </c>
       <c r="AC32" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD32" s="12" t="s">
         <v>193</v>
       </c>
       <c r="AE32" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF32" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG32" s="12">
         <v>1</v>
@@ -5674,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
@@ -5696,16 +5702,16 @@
         <v>0</v>
       </c>
       <c r="AC33" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD33" s="15" t="s">
         <v>197</v>
       </c>
       <c r="AE33" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF33" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG33" s="15">
         <v>1</v>
@@ -5761,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
@@ -5783,16 +5789,16 @@
         <v>0</v>
       </c>
       <c r="AC34" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD34" s="12" t="s">
         <v>201</v>
       </c>
       <c r="AE34" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF34" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG34" s="12">
         <v>1</v>
@@ -5848,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
@@ -5870,16 +5876,16 @@
         <v>0</v>
       </c>
       <c r="AC35" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD35" s="15" t="s">
         <v>205</v>
       </c>
       <c r="AE35" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF35" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG35" s="15">
         <v>1</v>
@@ -5935,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
@@ -5957,16 +5963,16 @@
         <v>0</v>
       </c>
       <c r="AC36" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD36" s="12" t="s">
         <v>209</v>
       </c>
       <c r="AE36" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF36" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG36" s="12">
         <v>1</v>
@@ -6022,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
@@ -6044,16 +6050,16 @@
         <v>0</v>
       </c>
       <c r="AC37" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD37" s="15" t="s">
         <v>213</v>
       </c>
       <c r="AE37" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF37" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG37" s="15">
         <v>1</v>
@@ -6107,7 +6113,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
@@ -6129,16 +6135,16 @@
         <v>0</v>
       </c>
       <c r="AC38" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD38" s="12" t="s">
         <v>216</v>
       </c>
       <c r="AE38" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF38" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG38" s="12">
         <v>1</v>
@@ -6192,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
@@ -6214,16 +6220,16 @@
         <v>0</v>
       </c>
       <c r="AC39" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD39" s="15" t="s">
         <v>219</v>
       </c>
       <c r="AE39" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF39" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG39" s="15">
         <v>1</v>
@@ -6277,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
@@ -6299,16 +6305,16 @@
         <v>0</v>
       </c>
       <c r="AC40" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD40" s="12" t="s">
         <v>222</v>
       </c>
       <c r="AE40" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF40" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG40" s="12">
         <v>1</v>
@@ -6362,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
@@ -6384,16 +6390,16 @@
         <v>0</v>
       </c>
       <c r="AC41" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD41" s="15" t="s">
         <v>225</v>
       </c>
       <c r="AE41" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF41" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG41" s="15">
         <v>1</v>
@@ -6447,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
@@ -6469,16 +6475,16 @@
         <v>0</v>
       </c>
       <c r="AC42" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD42" s="12" t="s">
         <v>228</v>
       </c>
       <c r="AE42" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF42" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG42" s="12">
         <v>1</v>
@@ -6532,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
@@ -6554,16 +6560,16 @@
         <v>0</v>
       </c>
       <c r="AC43" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD43" s="15" t="s">
         <v>231</v>
       </c>
       <c r="AE43" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF43" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG43" s="15">
         <v>1</v>
@@ -6617,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
@@ -6639,16 +6645,16 @@
         <v>0</v>
       </c>
       <c r="AC44" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD44" s="12" t="s">
         <v>234</v>
       </c>
       <c r="AE44" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF44" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG44" s="12">
         <v>1</v>
@@ -6702,7 +6708,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P45" s="15"/>
       <c r="Q45" s="15"/>
@@ -6724,16 +6730,16 @@
         <v>0</v>
       </c>
       <c r="AC45" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD45" s="15" t="s">
         <v>237</v>
       </c>
       <c r="AE45" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF45" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG45" s="15">
         <v>1</v>
@@ -6758,7 +6764,7 @@
         <v>238</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" s="18"/>
       <c r="D46" s="13"/>
@@ -6787,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
@@ -6809,16 +6815,16 @@
         <v>0</v>
       </c>
       <c r="AC46" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD46" s="15" t="s">
         <v>239</v>
       </c>
       <c r="AE46" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF46" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG46" s="12">
         <v>1</v>
@@ -6872,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P47" s="15"/>
       <c r="Q47" s="15"/>
@@ -6894,16 +6900,16 @@
         <v>0</v>
       </c>
       <c r="AC47" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD47" s="15" t="s">
         <v>242</v>
       </c>
       <c r="AE47" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF47" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG47" s="15">
         <v>1</v>
@@ -6959,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P48" s="12"/>
       <c r="Q48" s="12"/>
@@ -6981,16 +6987,16 @@
         <v>0</v>
       </c>
       <c r="AC48" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD48" s="15" t="s">
         <v>246</v>
       </c>
       <c r="AE48" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF48" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG48" s="12">
         <v>1</v>
@@ -7046,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P49" s="15"/>
       <c r="Q49" s="15"/>
@@ -7068,16 +7074,16 @@
         <v>0</v>
       </c>
       <c r="AC49" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD49" s="15" t="s">
         <v>250</v>
       </c>
       <c r="AE49" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF49" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG49" s="15">
         <v>1</v>
@@ -7131,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
@@ -7153,16 +7159,16 @@
         <v>0</v>
       </c>
       <c r="AC50" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD50" s="15" t="s">
         <v>253</v>
       </c>
       <c r="AE50" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF50" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG50" s="12">
         <v>1</v>
@@ -7216,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P51" s="15"/>
       <c r="Q51" s="15"/>
@@ -7238,16 +7244,16 @@
         <v>0</v>
       </c>
       <c r="AC51" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD51" s="15" t="s">
         <v>256</v>
       </c>
       <c r="AE51" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF51" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG51" s="15">
         <v>1</v>
@@ -7301,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
@@ -7323,16 +7329,16 @@
         <v>0</v>
       </c>
       <c r="AC52" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD52" s="15" t="s">
         <v>259</v>
       </c>
       <c r="AE52" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF52" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG52" s="12">
         <v>1</v>
@@ -7386,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
@@ -7408,16 +7414,16 @@
         <v>0</v>
       </c>
       <c r="AC53" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD53" s="15" t="s">
         <v>262</v>
       </c>
       <c r="AE53" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF53" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG53" s="15">
         <v>1</v>
@@ -7471,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
@@ -7493,16 +7499,16 @@
         <v>0</v>
       </c>
       <c r="AC54" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD54" s="15" t="s">
         <v>265</v>
       </c>
       <c r="AE54" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF54" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG54" s="12">
         <v>1</v>
@@ -7556,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
@@ -7578,16 +7584,16 @@
         <v>0</v>
       </c>
       <c r="AC55" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD55" s="15" t="s">
         <v>268</v>
       </c>
       <c r="AE55" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF55" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG55" s="15">
         <v>1</v>
@@ -7641,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
@@ -7663,16 +7669,16 @@
         <v>0</v>
       </c>
       <c r="AC56" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD56" s="15" t="s">
         <v>271</v>
       </c>
       <c r="AE56" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF56" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG56" s="12">
         <v>1</v>
@@ -7726,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
@@ -7748,16 +7754,16 @@
         <v>0</v>
       </c>
       <c r="AC57" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD57" s="15" t="s">
         <v>274</v>
       </c>
       <c r="AE57" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF57" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG57" s="15">
         <v>1</v>
@@ -7811,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
@@ -7833,16 +7839,16 @@
         <v>0</v>
       </c>
       <c r="AC58" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD58" s="15" t="s">
         <v>277</v>
       </c>
       <c r="AE58" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF58" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG58" s="12">
         <v>1</v>
@@ -7896,7 +7902,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P59" s="15"/>
       <c r="Q59" s="15"/>
@@ -7918,16 +7924,16 @@
         <v>0</v>
       </c>
       <c r="AC59" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD59" s="15" t="s">
         <v>280</v>
       </c>
       <c r="AE59" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF59" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG59" s="15">
         <v>1</v>
@@ -7981,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
@@ -8003,16 +8009,16 @@
         <v>0</v>
       </c>
       <c r="AC60" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD60" s="15" t="s">
         <v>283</v>
       </c>
       <c r="AE60" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF60" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG60" s="12">
         <v>1</v>
@@ -8066,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P61" s="15"/>
       <c r="Q61" s="15"/>
@@ -8088,16 +8094,16 @@
         <v>0</v>
       </c>
       <c r="AC61" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD61" s="15" t="s">
         <v>286</v>
       </c>
       <c r="AE61" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF61" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG61" s="15">
         <v>1</v>
@@ -8151,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
@@ -8173,16 +8179,16 @@
         <v>0</v>
       </c>
       <c r="AC62" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD62" s="15" t="s">
         <v>289</v>
       </c>
       <c r="AE62" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF62" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG62" s="12">
         <v>1</v>
@@ -8236,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P63" s="15"/>
       <c r="Q63" s="15"/>
@@ -8258,16 +8264,16 @@
         <v>0</v>
       </c>
       <c r="AC63" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD63" s="15" t="s">
         <v>292</v>
       </c>
       <c r="AE63" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF63" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG63" s="15">
         <v>1</v>
@@ -8321,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
@@ -8343,16 +8349,16 @@
         <v>0</v>
       </c>
       <c r="AC64" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD64" s="15" t="s">
         <v>295</v>
       </c>
       <c r="AE64" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF64" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG64" s="12">
         <v>1</v>
@@ -8406,7 +8412,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P65" s="15"/>
       <c r="Q65" s="15"/>
@@ -8428,16 +8434,16 @@
         <v>0</v>
       </c>
       <c r="AC65" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD65" s="15" t="s">
         <v>298</v>
       </c>
       <c r="AE65" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF65" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG65" s="15">
         <v>1</v>
@@ -8491,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P66" s="12"/>
       <c r="Q66" s="12"/>
@@ -8513,16 +8519,16 @@
         <v>0</v>
       </c>
       <c r="AC66" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD66" s="15" t="s">
         <v>301</v>
       </c>
       <c r="AE66" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF66" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG66" s="12">
         <v>1</v>
@@ -8576,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
@@ -8598,16 +8604,16 @@
         <v>0</v>
       </c>
       <c r="AC67" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD67" s="15" t="s">
         <v>304</v>
       </c>
       <c r="AE67" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF67" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG67" s="15">
         <v>1</v>
@@ -8661,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P68" s="12"/>
       <c r="Q68" s="12"/>
@@ -8683,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="AC68" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD68" s="15" t="s">
         <v>307</v>
       </c>
       <c r="AE68" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF68" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG68" s="12">
         <v>1</v>
@@ -8746,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P69" s="15"/>
       <c r="Q69" s="15"/>
@@ -8768,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="AC69" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD69" s="15" t="s">
         <v>310</v>
       </c>
       <c r="AE69" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF69" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG69" s="15">
         <v>1</v>
@@ -8831,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P70" s="12"/>
       <c r="Q70" s="12"/>
@@ -8853,16 +8859,16 @@
         <v>0</v>
       </c>
       <c r="AC70" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD70" s="15" t="s">
         <v>313</v>
       </c>
       <c r="AE70" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF70" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG70" s="12">
         <v>1</v>
@@ -8916,7 +8922,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P71" s="15"/>
       <c r="Q71" s="15"/>
@@ -8938,16 +8944,16 @@
         <v>0</v>
       </c>
       <c r="AC71" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD71" s="15" t="s">
         <v>316</v>
       </c>
       <c r="AE71" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF71" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG71" s="15">
         <v>1</v>
@@ -9001,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P72" s="12"/>
       <c r="Q72" s="12"/>
@@ -9023,16 +9029,16 @@
         <v>0</v>
       </c>
       <c r="AC72" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD72" s="15" t="s">
         <v>319</v>
       </c>
       <c r="AE72" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF72" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG72" s="12">
         <v>1</v>
@@ -9086,7 +9092,7 @@
         <v>0</v>
       </c>
       <c r="O73" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P73" s="15"/>
       <c r="Q73" s="15"/>
@@ -9108,16 +9114,16 @@
         <v>0</v>
       </c>
       <c r="AC73" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD73" s="15" t="s">
         <v>322</v>
       </c>
       <c r="AE73" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF73" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG73" s="15">
         <v>1</v>
@@ -9171,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P74" s="12"/>
       <c r="Q74" s="12"/>
@@ -9193,16 +9199,16 @@
         <v>0</v>
       </c>
       <c r="AC74" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD74" s="15" t="s">
         <v>325</v>
       </c>
       <c r="AE74" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF74" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG74" s="12">
         <v>1</v>
@@ -9256,7 +9262,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P75" s="15"/>
       <c r="Q75" s="15"/>
@@ -9278,16 +9284,16 @@
         <v>0</v>
       </c>
       <c r="AC75" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD75" s="15" t="s">
         <v>328</v>
       </c>
       <c r="AE75" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF75" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG75" s="15">
         <v>1</v>
@@ -9341,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P76" s="12"/>
       <c r="Q76" s="12"/>
@@ -9363,16 +9369,16 @@
         <v>0</v>
       </c>
       <c r="AC76" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD76" s="15" t="s">
         <v>331</v>
       </c>
       <c r="AE76" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF76" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG76" s="12">
         <v>1</v>
@@ -9426,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P77" s="15"/>
       <c r="Q77" s="15"/>
@@ -9448,16 +9454,16 @@
         <v>0</v>
       </c>
       <c r="AC77" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD77" s="15" t="s">
         <v>334</v>
       </c>
       <c r="AE77" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF77" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG77" s="15">
         <v>1</v>
@@ -9511,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P78" s="12"/>
       <c r="Q78" s="12"/>
@@ -9533,16 +9539,16 @@
         <v>0</v>
       </c>
       <c r="AC78" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD78" s="15" t="s">
         <v>337</v>
       </c>
       <c r="AE78" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF78" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG78" s="12">
         <v>1</v>
@@ -9596,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
@@ -9618,16 +9624,16 @@
         <v>0</v>
       </c>
       <c r="AC79" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD79" s="15" t="s">
         <v>340</v>
       </c>
       <c r="AE79" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF79" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG79" s="15">
         <v>1</v>
@@ -9681,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="O80" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P80" s="12"/>
       <c r="Q80" s="12"/>
@@ -9703,16 +9709,16 @@
         <v>0</v>
       </c>
       <c r="AC80" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD80" s="15" t="s">
         <v>343</v>
       </c>
       <c r="AE80" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF80" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG80" s="12">
         <v>1</v>
@@ -9766,7 +9772,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
@@ -9788,16 +9794,16 @@
         <v>0</v>
       </c>
       <c r="AC81" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD81" s="15" t="s">
         <v>346</v>
       </c>
       <c r="AE81" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF81" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG81" s="15">
         <v>1</v>
@@ -9851,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P82" s="12"/>
       <c r="Q82" s="12"/>
@@ -9873,16 +9879,16 @@
         <v>0</v>
       </c>
       <c r="AC82" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD82" s="15" t="s">
         <v>349</v>
       </c>
       <c r="AE82" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF82" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG82" s="12">
         <v>1</v>
@@ -9936,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
@@ -9958,16 +9964,16 @@
         <v>0</v>
       </c>
       <c r="AC83" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD83" s="15" t="s">
         <v>352</v>
       </c>
       <c r="AE83" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF83" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG83" s="15">
         <v>1</v>
@@ -10021,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P84" s="41"/>
       <c r="Q84" s="41"/>
@@ -10043,16 +10049,16 @@
         <v>0</v>
       </c>
       <c r="AC84" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AD84" s="15" t="s">
         <v>355</v>
       </c>
       <c r="AE84" s="41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF84" s="41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG84" s="41">
         <v>1</v>

--- a/excels/items/item_arms.xlsx
+++ b/excels/items/item_arms.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="360">
   <si>
     <t>名字</t>
   </si>
@@ -298,10 +298,9 @@
   </si>
   <si>
     <t>&lt;h1&gt;效果:&lt;/h1&gt;召唤3个雷电幽魂围绕英雄，对所有触碰到的敌人造成伤害
-召唤物时间：3
-cd：2秒
-伤害系数：每个雷魂造成攻击力100%·雷元素伤害
-作用范围：以自身中心直径300码</t>
+召唤物时间：%summoned_duration%
+伤害系数：每个雷魂造成攻击力100%%雷元素伤害
+作用范围：300</t>
   </si>
   <si>
     <t>召唤</t>
@@ -367,6 +366,18 @@
   </si>
   <si>
     <t>&lt;h1&gt;效果:&lt;/h1&gt;向敌人射出1支强力的箭矢，每伤害一名敌人伤害减少15%。</t>
+  </si>
+  <si>
+    <t>windrunner_powershot</t>
+  </si>
+  <si>
+    <t>arms_cd 3</t>
+  </si>
+  <si>
+    <t>projectile_speed 1000</t>
+  </si>
+  <si>
+    <t>projectile_count 1</t>
   </si>
   <si>
     <t>items/arms/t1/item_arms_t1_5</t>
@@ -2430,16 +2441,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{D8DA0B2A-4ADD-4524-AAA5-51E631B3B324}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{0ACDA9F3-2434-4916-8D95-315A7A7596C4}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{74C95A2A-CB5A-4D13-AE6C-657A0B59861F}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{63CE0549-1F37-4BC6-A0F6-43F6CFF1DD50}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{1351492F-AFCE-47B6-AF1C-C7641AB5BA7C}">
+    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{AD587E4C-13C8-4274-8D94-359F4BCB430B}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="firstColumn" dxfId="9"/>
@@ -2748,9 +2759,9 @@
   <dimension ref="A1:AU85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AD4" sqref="AD4"/>
+      <selection pane="topRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2770,7 +2781,8 @@
     <col min="16" max="16" width="18.3416666666667" customWidth="1"/>
     <col min="17" max="17" width="15.125" customWidth="1"/>
     <col min="18" max="18" width="21.625" customWidth="1"/>
-    <col min="19" max="24" width="6.24166666666667" customWidth="1"/>
+    <col min="19" max="19" width="16.75" customWidth="1"/>
+    <col min="20" max="24" width="6.24166666666667" customWidth="1"/>
     <col min="25" max="25" width="8.00833333333333" customWidth="1"/>
     <col min="26" max="26" width="21.3416666666667" customWidth="1"/>
     <col min="27" max="27" width="21.5083333333333" customWidth="1"/>
@@ -3147,7 +3159,7 @@
       <c r="AT3" s="35"/>
       <c r="AU3" s="36"/>
     </row>
-    <row r="4" ht="115.5" spans="1:47">
+    <row r="4" ht="99" spans="1:47">
       <c r="A4" s="14" t="s">
         <v>84</v>
       </c>
@@ -3533,12 +3545,18 @@
         <v>0</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
+      <c r="Q8" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>111</v>
+      </c>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
@@ -3555,10 +3573,10 @@
         <v>0</v>
       </c>
       <c r="AC8" s="12" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AD8" s="15" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AE8" s="15" t="s">
         <v>80</v>
@@ -3586,10 +3604,10 @@
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:47">
       <c r="A9" s="11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C9" s="13"/>
       <c r="F9" s="15">
@@ -3641,7 +3659,7 @@
         <v>100</v>
       </c>
       <c r="AD9" s="12" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AE9" s="12" t="s">
         <v>80</v>
@@ -3669,13 +3687,13 @@
     </row>
     <row r="10" ht="33" spans="1:47">
       <c r="A10" s="14" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F10" s="15">
         <v>210007</v>
@@ -3726,7 +3744,7 @@
         <v>100</v>
       </c>
       <c r="AD10" s="15" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AE10" s="15" t="s">
         <v>80</v>
@@ -3754,13 +3772,13 @@
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:47">
       <c r="A11" s="11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F11" s="15">
         <v>210008</v>
@@ -3811,7 +3829,7 @@
         <v>100</v>
       </c>
       <c r="AD11" s="12" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AE11" s="12" t="s">
         <v>80</v>
@@ -3839,10 +3857,10 @@
     </row>
     <row r="12" ht="16.5" spans="1:47">
       <c r="A12" s="14" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C12" s="16"/>
       <c r="F12" s="15">
@@ -3894,7 +3912,7 @@
         <v>100</v>
       </c>
       <c r="AD12" s="15" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AE12" s="15" t="s">
         <v>80</v>
@@ -3922,10 +3940,10 @@
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:47">
       <c r="A13" s="11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="13"/>
@@ -3979,7 +3997,7 @@
         <v>100</v>
       </c>
       <c r="AD13" s="12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AE13" s="12" t="s">
         <v>80</v>
@@ -4007,13 +4025,13 @@
     </row>
     <row r="14" ht="66" spans="1:47">
       <c r="A14" s="14" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -4066,7 +4084,7 @@
         <v>100</v>
       </c>
       <c r="AD14" s="15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AE14" s="15" t="s">
         <v>80</v>
@@ -4094,13 +4112,13 @@
     </row>
     <row r="15" ht="33" spans="1:47">
       <c r="A15" s="11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="19"/>
@@ -4153,7 +4171,7 @@
         <v>100</v>
       </c>
       <c r="AD15" s="12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AE15" s="12" t="s">
         <v>80</v>
@@ -4181,13 +4199,13 @@
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:47">
       <c r="A16" s="14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -4240,7 +4258,7 @@
         <v>100</v>
       </c>
       <c r="AD16" s="15" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AE16" s="15" t="s">
         <v>80</v>
@@ -4268,13 +4286,13 @@
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:47">
       <c r="A17" s="11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="19"/>
@@ -4327,7 +4345,7 @@
         <v>100</v>
       </c>
       <c r="AD17" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AE17" s="12" t="s">
         <v>80</v>
@@ -4355,10 +4373,10 @@
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:47">
       <c r="A18" s="14" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -4412,7 +4430,7 @@
         <v>100</v>
       </c>
       <c r="AD18" s="15" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AE18" s="15" t="s">
         <v>80</v>
@@ -4440,13 +4458,13 @@
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:47">
       <c r="A19" s="11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="19"/>
@@ -4499,7 +4517,7 @@
         <v>100</v>
       </c>
       <c r="AD19" s="12" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AE19" s="12" t="s">
         <v>80</v>
@@ -4527,13 +4545,13 @@
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:47">
       <c r="A20" s="14" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -4586,7 +4604,7 @@
         <v>100</v>
       </c>
       <c r="AD20" s="15" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AE20" s="15" t="s">
         <v>80</v>
@@ -4614,13 +4632,13 @@
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:47">
       <c r="A21" s="11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="19"/>
@@ -4673,7 +4691,7 @@
         <v>100</v>
       </c>
       <c r="AD21" s="12" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AE21" s="12" t="s">
         <v>80</v>
@@ -4701,13 +4719,13 @@
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:47">
       <c r="A22" s="14" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -4760,7 +4778,7 @@
         <v>100</v>
       </c>
       <c r="AD22" s="15" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AE22" s="15" t="s">
         <v>80</v>
@@ -4788,13 +4806,13 @@
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:47">
       <c r="A23" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="19"/>
@@ -4847,7 +4865,7 @@
         <v>100</v>
       </c>
       <c r="AD23" s="12" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AE23" s="12" t="s">
         <v>80</v>
@@ -4875,13 +4893,13 @@
     </row>
     <row r="24" ht="16.5" spans="1:47">
       <c r="A24" s="11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="19"/>
@@ -4934,7 +4952,7 @@
         <v>100</v>
       </c>
       <c r="AD24" s="12" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AE24" s="12" t="s">
         <v>80</v>
@@ -4962,13 +4980,13 @@
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="1:47">
       <c r="A25" s="14" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -5021,7 +5039,7 @@
         <v>100</v>
       </c>
       <c r="AD25" s="15" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AE25" s="15" t="s">
         <v>80</v>
@@ -5049,10 +5067,10 @@
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="1:47">
       <c r="A26" s="11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="13"/>
@@ -5106,7 +5124,7 @@
         <v>100</v>
       </c>
       <c r="AD26" s="12" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AE26" s="12" t="s">
         <v>80</v>
@@ -5134,10 +5152,10 @@
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="1:47">
       <c r="A27" s="14" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -5191,7 +5209,7 @@
         <v>100</v>
       </c>
       <c r="AD27" s="15" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AE27" s="15" t="s">
         <v>80</v>
@@ -5219,10 +5237,10 @@
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="1:47">
       <c r="A28" s="11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="13"/>
@@ -5276,7 +5294,7 @@
         <v>100</v>
       </c>
       <c r="AD28" s="12" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AE28" s="12" t="s">
         <v>80</v>
@@ -5304,10 +5322,10 @@
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="1:47">
       <c r="A29" s="14" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -5361,7 +5379,7 @@
         <v>100</v>
       </c>
       <c r="AD29" s="15" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AE29" s="15" t="s">
         <v>80</v>
@@ -5389,10 +5407,10 @@
     </row>
     <row r="30" ht="22.5" customHeight="1" spans="1:47">
       <c r="A30" s="11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="13"/>
@@ -5446,7 +5464,7 @@
         <v>100</v>
       </c>
       <c r="AD30" s="12" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AE30" s="12" t="s">
         <v>80</v>
@@ -5474,10 +5492,10 @@
     </row>
     <row r="31" ht="22.5" customHeight="1" spans="1:47">
       <c r="A31" s="14" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -5531,7 +5549,7 @@
         <v>100</v>
       </c>
       <c r="AD31" s="15" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AE31" s="15" t="s">
         <v>80</v>
@@ -5559,13 +5577,13 @@
     </row>
     <row r="32" ht="49.5" spans="1:47">
       <c r="A32" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="19"/>
@@ -5618,7 +5636,7 @@
         <v>100</v>
       </c>
       <c r="AD32" s="12" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AE32" s="12" t="s">
         <v>80</v>
@@ -5646,13 +5664,13 @@
     </row>
     <row r="33" ht="33" spans="1:47">
       <c r="A33" s="14" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -5705,7 +5723,7 @@
         <v>100</v>
       </c>
       <c r="AD33" s="15" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AE33" s="15" t="s">
         <v>80</v>
@@ -5733,13 +5751,13 @@
     </row>
     <row r="34" ht="22.5" customHeight="1" spans="1:47">
       <c r="A34" s="11" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="19"/>
@@ -5792,7 +5810,7 @@
         <v>100</v>
       </c>
       <c r="AD34" s="12" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AE34" s="12" t="s">
         <v>80</v>
@@ -5820,13 +5838,13 @@
     </row>
     <row r="35" ht="22.5" customHeight="1" spans="1:47">
       <c r="A35" s="14" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
@@ -5879,7 +5897,7 @@
         <v>100</v>
       </c>
       <c r="AD35" s="15" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AE35" s="15" t="s">
         <v>80</v>
@@ -5907,13 +5925,13 @@
     </row>
     <row r="36" ht="22.5" customHeight="1" spans="1:47">
       <c r="A36" s="11" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="19"/>
@@ -5966,7 +5984,7 @@
         <v>100</v>
       </c>
       <c r="AD36" s="12" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AE36" s="12" t="s">
         <v>80</v>
@@ -5994,13 +6012,13 @@
     </row>
     <row r="37" ht="22.5" customHeight="1" spans="1:47">
       <c r="A37" s="14" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
@@ -6053,7 +6071,7 @@
         <v>100</v>
       </c>
       <c r="AD37" s="15" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AE37" s="15" t="s">
         <v>80</v>
@@ -6081,10 +6099,10 @@
     </row>
     <row r="38" ht="22.5" customHeight="1" spans="1:47">
       <c r="A38" s="11" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="13"/>
@@ -6138,7 +6156,7 @@
         <v>100</v>
       </c>
       <c r="AD38" s="12" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AE38" s="12" t="s">
         <v>80</v>
@@ -6166,10 +6184,10 @@
     </row>
     <row r="39" ht="22.5" customHeight="1" spans="1:47">
       <c r="A39" s="14" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
@@ -6223,7 +6241,7 @@
         <v>100</v>
       </c>
       <c r="AD39" s="15" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AE39" s="15" t="s">
         <v>80</v>
@@ -6251,10 +6269,10 @@
     </row>
     <row r="40" ht="22.5" customHeight="1" spans="1:47">
       <c r="A40" s="11" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="13"/>
@@ -6308,7 +6326,7 @@
         <v>100</v>
       </c>
       <c r="AD40" s="12" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AE40" s="12" t="s">
         <v>80</v>
@@ -6336,10 +6354,10 @@
     </row>
     <row r="41" ht="22.5" customHeight="1" spans="1:47">
       <c r="A41" s="14" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -6393,7 +6411,7 @@
         <v>100</v>
       </c>
       <c r="AD41" s="15" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AE41" s="15" t="s">
         <v>80</v>
@@ -6421,10 +6439,10 @@
     </row>
     <row r="42" ht="22.5" customHeight="1" spans="1:47">
       <c r="A42" s="11" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="13"/>
@@ -6478,7 +6496,7 @@
         <v>100</v>
       </c>
       <c r="AD42" s="12" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AE42" s="12" t="s">
         <v>80</v>
@@ -6506,10 +6524,10 @@
     </row>
     <row r="43" ht="22.5" customHeight="1" spans="1:47">
       <c r="A43" s="14" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -6563,7 +6581,7 @@
         <v>100</v>
       </c>
       <c r="AD43" s="15" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AE43" s="15" t="s">
         <v>80</v>
@@ -6591,10 +6609,10 @@
     </row>
     <row r="44" ht="22.5" customHeight="1" spans="1:47">
       <c r="A44" s="11" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="13"/>
@@ -6648,7 +6666,7 @@
         <v>100</v>
       </c>
       <c r="AD44" s="12" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AE44" s="12" t="s">
         <v>80</v>
@@ -6676,10 +6694,10 @@
     </row>
     <row r="45" ht="22.5" customHeight="1" spans="1:47">
       <c r="A45" s="14" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
@@ -6733,7 +6751,7 @@
         <v>100</v>
       </c>
       <c r="AD45" s="15" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AE45" s="15" t="s">
         <v>80</v>
@@ -6761,7 +6779,7 @@
     </row>
     <row r="46" ht="22.5" customHeight="1" spans="1:47">
       <c r="A46" s="11" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>98</v>
@@ -6818,7 +6836,7 @@
         <v>100</v>
       </c>
       <c r="AD46" s="15" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AE46" s="12" t="s">
         <v>80</v>
@@ -6846,10 +6864,10 @@
     </row>
     <row r="47" ht="22.5" customHeight="1" spans="1:47">
       <c r="A47" s="14" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
@@ -6903,7 +6921,7 @@
         <v>100</v>
       </c>
       <c r="AD47" s="15" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AE47" s="15" t="s">
         <v>80</v>
@@ -6931,13 +6949,13 @@
     </row>
     <row r="48" ht="33" spans="1:47">
       <c r="A48" s="11" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="19"/>
@@ -6990,7 +7008,7 @@
         <v>100</v>
       </c>
       <c r="AD48" s="15" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AE48" s="12" t="s">
         <v>80</v>
@@ -7018,13 +7036,13 @@
     </row>
     <row r="49" ht="33" spans="1:47">
       <c r="A49" s="14" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
@@ -7077,7 +7095,7 @@
         <v>100</v>
       </c>
       <c r="AD49" s="15" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AE49" s="15" t="s">
         <v>80</v>
@@ -7105,10 +7123,10 @@
     </row>
     <row r="50" ht="22.5" customHeight="1" spans="1:47">
       <c r="A50" s="11" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="13"/>
@@ -7162,7 +7180,7 @@
         <v>100</v>
       </c>
       <c r="AD50" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AE50" s="12" t="s">
         <v>80</v>
@@ -7190,10 +7208,10 @@
     </row>
     <row r="51" ht="22.5" customHeight="1" spans="1:47">
       <c r="A51" s="14" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
@@ -7247,7 +7265,7 @@
         <v>100</v>
       </c>
       <c r="AD51" s="15" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AE51" s="15" t="s">
         <v>80</v>
@@ -7275,10 +7293,10 @@
     </row>
     <row r="52" ht="22.5" customHeight="1" spans="1:47">
       <c r="A52" s="11" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="13"/>
@@ -7332,7 +7350,7 @@
         <v>100</v>
       </c>
       <c r="AD52" s="15" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AE52" s="12" t="s">
         <v>80</v>
@@ -7360,10 +7378,10 @@
     </row>
     <row r="53" ht="22.5" customHeight="1" spans="1:47">
       <c r="A53" s="14" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
@@ -7417,7 +7435,7 @@
         <v>100</v>
       </c>
       <c r="AD53" s="15" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AE53" s="15" t="s">
         <v>80</v>
@@ -7445,10 +7463,10 @@
     </row>
     <row r="54" ht="22.5" customHeight="1" spans="1:47">
       <c r="A54" s="11" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C54" s="18"/>
       <c r="D54" s="13"/>
@@ -7502,7 +7520,7 @@
         <v>100</v>
       </c>
       <c r="AD54" s="15" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AE54" s="12" t="s">
         <v>80</v>
@@ -7530,10 +7548,10 @@
     </row>
     <row r="55" ht="22.5" customHeight="1" spans="1:47">
       <c r="A55" s="14" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
@@ -7587,7 +7605,7 @@
         <v>100</v>
       </c>
       <c r="AD55" s="15" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AE55" s="15" t="s">
         <v>80</v>
@@ -7615,10 +7633,10 @@
     </row>
     <row r="56" ht="22.5" customHeight="1" spans="1:47">
       <c r="A56" s="11" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="13"/>
@@ -7672,7 +7690,7 @@
         <v>100</v>
       </c>
       <c r="AD56" s="15" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AE56" s="12" t="s">
         <v>80</v>
@@ -7700,10 +7718,10 @@
     </row>
     <row r="57" ht="22.5" customHeight="1" spans="1:47">
       <c r="A57" s="14" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
@@ -7757,7 +7775,7 @@
         <v>100</v>
       </c>
       <c r="AD57" s="15" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AE57" s="15" t="s">
         <v>80</v>
@@ -7785,10 +7803,10 @@
     </row>
     <row r="58" ht="22.5" customHeight="1" spans="1:47">
       <c r="A58" s="11" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="13"/>
@@ -7842,7 +7860,7 @@
         <v>100</v>
       </c>
       <c r="AD58" s="15" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AE58" s="12" t="s">
         <v>80</v>
@@ -7870,10 +7888,10 @@
     </row>
     <row r="59" ht="22.5" customHeight="1" spans="1:47">
       <c r="A59" s="14" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
@@ -7927,7 +7945,7 @@
         <v>100</v>
       </c>
       <c r="AD59" s="15" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AE59" s="15" t="s">
         <v>80</v>
@@ -7955,10 +7973,10 @@
     </row>
     <row r="60" ht="22.5" customHeight="1" spans="1:47">
       <c r="A60" s="11" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="13"/>
@@ -8012,7 +8030,7 @@
         <v>100</v>
       </c>
       <c r="AD60" s="15" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AE60" s="12" t="s">
         <v>80</v>
@@ -8040,10 +8058,10 @@
     </row>
     <row r="61" ht="22.5" customHeight="1" spans="1:47">
       <c r="A61" s="14" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
@@ -8097,7 +8115,7 @@
         <v>100</v>
       </c>
       <c r="AD61" s="15" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AE61" s="15" t="s">
         <v>80</v>
@@ -8125,10 +8143,10 @@
     </row>
     <row r="62" ht="22.5" customHeight="1" spans="1:47">
       <c r="A62" s="11" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="13"/>
@@ -8182,7 +8200,7 @@
         <v>100</v>
       </c>
       <c r="AD62" s="15" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AE62" s="12" t="s">
         <v>80</v>
@@ -8210,10 +8228,10 @@
     </row>
     <row r="63" ht="22.5" customHeight="1" spans="1:47">
       <c r="A63" s="14" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
@@ -8267,7 +8285,7 @@
         <v>100</v>
       </c>
       <c r="AD63" s="15" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AE63" s="15" t="s">
         <v>80</v>
@@ -8295,10 +8313,10 @@
     </row>
     <row r="64" ht="22.5" customHeight="1" spans="1:47">
       <c r="A64" s="11" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="13"/>
@@ -8352,7 +8370,7 @@
         <v>100</v>
       </c>
       <c r="AD64" s="15" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AE64" s="12" t="s">
         <v>80</v>
@@ -8380,10 +8398,10 @@
     </row>
     <row r="65" ht="22.5" customHeight="1" spans="1:47">
       <c r="A65" s="14" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
@@ -8437,7 +8455,7 @@
         <v>100</v>
       </c>
       <c r="AD65" s="15" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AE65" s="15" t="s">
         <v>80</v>
@@ -8465,10 +8483,10 @@
     </row>
     <row r="66" ht="22.5" customHeight="1" spans="1:47">
       <c r="A66" s="11" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C66" s="18"/>
       <c r="D66" s="13"/>
@@ -8522,7 +8540,7 @@
         <v>100</v>
       </c>
       <c r="AD66" s="15" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AE66" s="12" t="s">
         <v>80</v>
@@ -8550,10 +8568,10 @@
     </row>
     <row r="67" ht="22.5" customHeight="1" spans="1:47">
       <c r="A67" s="14" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
@@ -8607,7 +8625,7 @@
         <v>100</v>
       </c>
       <c r="AD67" s="15" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AE67" s="15" t="s">
         <v>80</v>
@@ -8635,10 +8653,10 @@
     </row>
     <row r="68" ht="22.5" customHeight="1" spans="1:47">
       <c r="A68" s="11" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C68" s="18"/>
       <c r="D68" s="13"/>
@@ -8692,7 +8710,7 @@
         <v>100</v>
       </c>
       <c r="AD68" s="15" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AE68" s="12" t="s">
         <v>80</v>
@@ -8720,10 +8738,10 @@
     </row>
     <row r="69" ht="22.5" customHeight="1" spans="1:47">
       <c r="A69" s="14" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
@@ -8777,7 +8795,7 @@
         <v>100</v>
       </c>
       <c r="AD69" s="15" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AE69" s="15" t="s">
         <v>80</v>
@@ -8805,10 +8823,10 @@
     </row>
     <row r="70" ht="22.5" customHeight="1" spans="1:47">
       <c r="A70" s="11" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="13"/>
@@ -8862,7 +8880,7 @@
         <v>100</v>
       </c>
       <c r="AD70" s="15" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AE70" s="12" t="s">
         <v>80</v>
@@ -8890,10 +8908,10 @@
     </row>
     <row r="71" ht="22.5" customHeight="1" spans="1:47">
       <c r="A71" s="14" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
@@ -8947,7 +8965,7 @@
         <v>100</v>
       </c>
       <c r="AD71" s="15" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AE71" s="15" t="s">
         <v>80</v>
@@ -8975,10 +8993,10 @@
     </row>
     <row r="72" ht="22.5" customHeight="1" spans="1:47">
       <c r="A72" s="11" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C72" s="18"/>
       <c r="D72" s="13"/>
@@ -9032,7 +9050,7 @@
         <v>100</v>
       </c>
       <c r="AD72" s="15" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AE72" s="12" t="s">
         <v>80</v>
@@ -9060,10 +9078,10 @@
     </row>
     <row r="73" ht="22.5" customHeight="1" spans="1:47">
       <c r="A73" s="14" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
@@ -9117,7 +9135,7 @@
         <v>100</v>
       </c>
       <c r="AD73" s="15" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AE73" s="15" t="s">
         <v>80</v>
@@ -9145,10 +9163,10 @@
     </row>
     <row r="74" ht="22.5" customHeight="1" spans="1:47">
       <c r="A74" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="13"/>
@@ -9202,7 +9220,7 @@
         <v>100</v>
       </c>
       <c r="AD74" s="15" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AE74" s="12" t="s">
         <v>80</v>
@@ -9230,10 +9248,10 @@
     </row>
     <row r="75" ht="22.5" customHeight="1" spans="1:47">
       <c r="A75" s="14" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
@@ -9287,7 +9305,7 @@
         <v>100</v>
       </c>
       <c r="AD75" s="15" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AE75" s="15" t="s">
         <v>80</v>
@@ -9315,10 +9333,10 @@
     </row>
     <row r="76" ht="22.5" customHeight="1" spans="1:47">
       <c r="A76" s="11" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="13"/>
@@ -9372,7 +9390,7 @@
         <v>100</v>
       </c>
       <c r="AD76" s="15" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AE76" s="12" t="s">
         <v>80</v>
@@ -9400,10 +9418,10 @@
     </row>
     <row r="77" ht="22.5" customHeight="1" spans="1:47">
       <c r="A77" s="14" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
@@ -9457,7 +9475,7 @@
         <v>100</v>
       </c>
       <c r="AD77" s="15" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AE77" s="15" t="s">
         <v>80</v>
@@ -9485,10 +9503,10 @@
     </row>
     <row r="78" ht="22.5" customHeight="1" spans="1:47">
       <c r="A78" s="11" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C78" s="18"/>
       <c r="D78" s="13"/>
@@ -9542,7 +9560,7 @@
         <v>100</v>
       </c>
       <c r="AD78" s="15" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AE78" s="12" t="s">
         <v>80</v>
@@ -9570,10 +9588,10 @@
     </row>
     <row r="79" ht="22.5" customHeight="1" spans="1:47">
       <c r="A79" s="14" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
@@ -9627,7 +9645,7 @@
         <v>100</v>
       </c>
       <c r="AD79" s="15" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AE79" s="15" t="s">
         <v>80</v>
@@ -9655,10 +9673,10 @@
     </row>
     <row r="80" ht="22.5" customHeight="1" spans="1:47">
       <c r="A80" s="11" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C80" s="18"/>
       <c r="D80" s="13"/>
@@ -9712,7 +9730,7 @@
         <v>100</v>
       </c>
       <c r="AD80" s="15" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AE80" s="12" t="s">
         <v>80</v>
@@ -9740,10 +9758,10 @@
     </row>
     <row r="81" ht="22.5" customHeight="1" spans="1:47">
       <c r="A81" s="14" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
@@ -9797,7 +9815,7 @@
         <v>100</v>
       </c>
       <c r="AD81" s="15" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AE81" s="15" t="s">
         <v>80</v>
@@ -9825,10 +9843,10 @@
     </row>
     <row r="82" ht="22.5" customHeight="1" spans="1:47">
       <c r="A82" s="11" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="13"/>
@@ -9882,7 +9900,7 @@
         <v>100</v>
       </c>
       <c r="AD82" s="15" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AE82" s="12" t="s">
         <v>80</v>
@@ -9910,10 +9928,10 @@
     </row>
     <row r="83" ht="22.5" customHeight="1" spans="1:47">
       <c r="A83" s="14" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
@@ -9967,7 +9985,7 @@
         <v>100</v>
       </c>
       <c r="AD83" s="15" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AE83" s="15" t="s">
         <v>80</v>
@@ -9995,10 +10013,10 @@
     </row>
     <row r="84" ht="22.5" customHeight="1" spans="1:47">
       <c r="A84" s="39" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C84" s="18"/>
       <c r="D84" s="40"/>
@@ -10052,7 +10070,7 @@
         <v>100</v>
       </c>
       <c r="AD84" s="15" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AE84" s="41" t="s">
         <v>80</v>

--- a/excels/items/item_arms.xlsx
+++ b/excels/items/item_arms.xlsx
@@ -2441,16 +2441,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{0ACDA9F3-2434-4916-8D95-315A7A7596C4}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{1A85741B-7A3D-4E8C-BB48-D554D145684C}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{63CE0549-1F37-4BC6-A0F6-43F6CFF1DD50}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1A03046C-BCDD-4EAA-A00D-25B42CBAB990}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{AD587E4C-13C8-4274-8D94-359F4BCB430B}">
+    <tableStyle name="藤萝紫线条表格样式" count="3" xr9:uid="{C08A7601-DA9C-4853-ADCF-F2CD25FB5112}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="firstColumn" dxfId="9"/>
@@ -2759,9 +2759,9 @@
   <dimension ref="A1:AU85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="AI1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O10" sqref="O10"/>
+      <selection pane="topRight" activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
